--- a/concrete_case/cc_payload_sedan.xlsx
+++ b/concrete_case/cc_payload_sedan.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CC-1-1-1</t>
+          <t>CC-8-1-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>主车以限速行驶，无目标巡航 (平直路)</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在平直路 (平直路)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>sedan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -550,548 +550,23 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1）以限速车速稳定巡航，允许有少量波动；
-2）档位合理，油耗经济；
-3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
-4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CC-1-1-2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>主车以限速行驶，无目标巡航 (500m_curve)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>curve</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1）以限速车速稳定巡航，允许有少量波动；
-2）档位合理，油耗经济；
-3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
-4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CC-1-1-3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>主车以限速行驶，无目标巡航 (700m_curve)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>curve</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1）以限速车速稳定巡航，允许有少量波动；
-2）档位合理，油耗经济；
-3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
-4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CC-1-1-4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>主车以限速行驶，无目标巡航 (1%_uphill)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>uphill</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1）以限速车速稳定巡航，允许有少量波动；
-2）档位合理，油耗经济；
-3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
-4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CC-1-1-5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>主车以限速行驶，无目标巡航 (3%_uphill)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>uphill</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1）以限速车速稳定巡航，允许有少量波动；
-2）档位合理，油耗经济；
-3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
-4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CC-1-1-6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>主车以限速行驶，无目标巡航 (1%_downhill)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>downhill</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1）以限速车速稳定巡航，允许有少量波动；
-2）档位合理，油耗经济；
-3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
-4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CC-1-1-7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>主车以限速行驶，无目标巡航 (3%_downhill)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>downhill</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1）以限速车速稳定巡航，允许有少量波动；
-2）档位合理，油耗经济；
-3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
-4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CC-8-1-1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在平直路 (平直路)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>sedan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>平直路</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>1）初速度0kph
 2）与主车同车道；
 3）在主车前方400m处，平直路上；</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1101,76 +576,76 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>CC-11-1-1</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>CC</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (平直路)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>平直路</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1180,76 +655,76 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>CC-11-1-2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>CC</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (700m_curve)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1259,76 +734,76 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>CC-11-1-3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>CC</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_uphill)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1338,76 +813,76 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>CC-11-1-4</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>CC</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_downhill)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
